--- a/130 - 视觉小说4 - Voice Acting Control - 语音行为控制.xlsx
+++ b/130 - 视觉小说4 - Voice Acting Control - 语音行为控制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Do you have voice acting in your game to add that extra bit of immersion? If you do, you have probably realized that RPG Maker MZ is not equipped with all the necessities that come with games that have voice acting in them. Some of these necessities include a different audio volume channel for voices alone, control for stopping specific voices that are playing, adding replayable voice tracks for the message window, etc.
 Features include all (but not limited to) the following:
@@ -309,6 +309,12 @@
       </rPr>
       <t>' 音频文件</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;No Voice Replay&gt;</t>
+  </si>
+  <si>
+    <t>如果在消息中使用此文本代码，无论是否播放语音，都会隐藏“替换语音”按钮。</t>
   </si>
   <si>
     <t>Sound Plugin Commands 声音</t>
@@ -1910,13 +1916,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="94.125" customWidth="1"/>
@@ -1937,6 +1943,14 @@
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1963,39 +1977,39 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2042,8 +2056,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2056,57 +2070,57 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" ht="25.5" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="18.75" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -2114,141 +2128,141 @@
     <row r="8" ht="117" customHeight="1"/>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="25.5" spans="1:3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="1:3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2256,149 +2270,148 @@
     </row>
     <row r="23" customFormat="1" ht="18.75" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23"/>
+        <v>58</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="1" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="18.75" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="1" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" ht="37.5" spans="1:3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" ht="37.5" spans="1:3">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" ht="49.5" spans="1:3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" ht="37.5" spans="1:3">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
